--- a/Data/aearep-143/candidatepackages.xlsx
+++ b/Data/aearep-143/candidatepackages.xlsx
@@ -28,18 +28,18 @@
     <t>missing</t>
   </si>
   <si>
+    <t>title</t>
+  </si>
+  <si>
     <t>sq</t>
   </si>
   <si>
+    <t>cluster</t>
+  </si>
+  <si>
     <t>report</t>
   </si>
   <si>
-    <t>title</t>
-  </si>
-  <si>
-    <t>cluster</t>
-  </si>
-  <si>
     <t>discrepancy</t>
   </si>
   <si>
@@ -49,10 +49,10 @@
     <t>median</t>
   </si>
   <si>
+    <t>zip</t>
+  </si>
+  <si>
     <t>mc</t>
-  </si>
-  <si>
-    <t>zip</t>
   </si>
   <si>
     <t>rnd</t>
@@ -301,7 +301,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -313,7 +313,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -325,7 +325,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>267</v>
+        <v>293</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -337,10 +337,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>563</v>
+        <v>499</v>
       </c>
       <c r="C5">
-        <v>0.18667109310626984</v>
+        <v>0.16495867073535919</v>
       </c>
       <c r="D5"/>
     </row>
@@ -349,10 +349,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>564</v>
+        <v>525</v>
       </c>
       <c r="C6">
-        <v>0.18700265884399414</v>
+        <v>0.1735537201166153</v>
       </c>
       <c r="D6"/>
     </row>
@@ -361,10 +361,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C7">
-        <v>0.18733422458171844</v>
+        <v>0.18611569702625275</v>
       </c>
       <c r="D7"/>
     </row>
@@ -373,10 +373,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>566</v>
+        <v>611</v>
       </c>
       <c r="C8">
-        <v>0.18766577541828156</v>
+        <v>0.20198346674442291</v>
       </c>
       <c r="D8"/>
     </row>
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>701</v>
+        <v>687</v>
       </c>
       <c r="C9">
-        <v>0.23242706060409546</v>
+        <v>0.22710743546485901</v>
       </c>
       <c r="D9"/>
     </row>
@@ -397,10 +397,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>745</v>
+        <v>712</v>
       </c>
       <c r="C10">
-        <v>0.24701590836048126</v>
+        <v>0.2353719025850296</v>
       </c>
       <c r="D10"/>
     </row>
@@ -409,10 +409,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>1133</v>
+        <v>955</v>
       </c>
       <c r="C11">
-        <v>0.37566313147544861</v>
+        <v>0.31570246815681458</v>
       </c>
       <c r="D11"/>
     </row>
@@ -421,10 +421,10 @@
         <v>11</v>
       </c>
       <c r="B12">
-        <v>1755</v>
+        <v>1658</v>
       </c>
       <c r="C12">
-        <v>0.58189654350280762</v>
+        <v>0.54809916019439697</v>
       </c>
       <c r="D12"/>
     </row>
@@ -433,10 +433,10 @@
         <v>12</v>
       </c>
       <c r="B13">
-        <v>1859</v>
+        <v>1767</v>
       </c>
       <c r="C13">
-        <v>0.61637932062149048</v>
+        <v>0.58413225412368774</v>
       </c>
       <c r="D13"/>
     </row>
@@ -445,10 +445,10 @@
         <v>13</v>
       </c>
       <c r="B14">
-        <v>1962</v>
+        <v>1792</v>
       </c>
       <c r="C14">
-        <v>0.65053051710128784</v>
+        <v>0.59239667654037476</v>
       </c>
       <c r="D14"/>
     </row>
@@ -457,10 +457,10 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>2232</v>
+        <v>2016</v>
       </c>
       <c r="C15">
-        <v>0.74005305767059326</v>
+        <v>0.6664462685585022</v>
       </c>
       <c r="D15"/>
     </row>
@@ -469,10 +469,10 @@
         <v>15</v>
       </c>
       <c r="B16">
-        <v>2424</v>
+        <v>2436</v>
       </c>
       <c r="C16">
-        <v>0.80371350049972534</v>
+        <v>0.80528926849365234</v>
       </c>
       <c r="D16"/>
     </row>
